--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1BA5D-E654-4CFB-9C18-557F32B99895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E7875-D850-4C93-B06C-B232169C865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -153,15 +153,6 @@
     <t>Die UI ist nicht benutzerfreundlich</t>
   </si>
   <si>
-    <t>Die Spezifizierung der Stadt im Profil ist nicht funktional oder nicht implementiert</t>
-  </si>
-  <si>
-    <t>Scheitern des Archiv</t>
-  </si>
-  <si>
-    <t>Es gelingt nicht, ein durch die Community getriebenes digitales Archiv zugründen</t>
-  </si>
-  <si>
     <t>Das System schafft nicht die Darstellung der digitalen Artefakte</t>
   </si>
   <si>
@@ -193,16 +184,10 @@
   </si>
   <si>
     <t>Der Upload ist zu kompliziert</t>
-  </si>
-  <si>
-    <t>Der Upload ist nicht funktional</t>
   </si>
   <si>
     <t>Usern gelingt es nicht, Content hochzuladen, da sie die 
 vorgesehene Uploadfunktion nicht verstehen</t>
-  </si>
-  <si>
-    <t>Durch fehlerhafte Projekt oder Zeitplanung scheitert die Gründung des digitalen Archivs</t>
   </si>
   <si>
     <t>Das System ermöglicht nicht, sich ein Bild einer Mittelstadt zu einer bestimmten Zeitperiode zu machen</t>
@@ -228,26 +213,35 @@
     <t>Die gefundene/n Zielgruppe und/oder Stakeholder sind nicht die, wie zuvor geplant und/oder agieren nicht so geplant mit dem System</t>
   </si>
   <si>
-    <t>Den Usern ist es nicht möglich, wie gewollt, Content 
-hochzuladen</t>
-  </si>
-  <si>
-    <t>Der Upload für mehrere Content Elemente von Usern</t>
-  </si>
-  <si>
-    <t>Es ist nicht möglich mehrere Elemente auf einmal in 
-einem Post hochzuladen</t>
-  </si>
-  <si>
-    <t>Es ist nicht möglich bzw. nicht so wie gewollt, dass man 
-in seinem Profil eine Stadt spezifiziert.</t>
+    <t>A=Auftreten</t>
+  </si>
+  <si>
+    <t>F=Folgen</t>
+  </si>
+  <si>
+    <t>W=Entdeckung</t>
+  </si>
+  <si>
+    <t>RPZ</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Die UI wurde nicht richtig im Vorfeld getestet/bewertet</t>
+  </si>
+  <si>
+    <t>Mehrere Feedbacks im Vorfeld einholen</t>
+  </si>
+  <si>
+    <t>Es wurde nicht richtig drauf geachtet, ob der Benutzer passend für die jeweilige Fuinktion ist.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,15 +269,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,33 +283,19 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,17 +313,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -402,48 +364,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,28 +425,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -803,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
-  <dimension ref="A3:G36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,456 +790,507 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="123.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" customWidth="1"/>
-    <col min="7" max="7" width="68.140625" customWidth="1"/>
+    <col min="5" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" customWidth="1"/>
+    <col min="11" max="11" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
+        <v>3</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="7">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
-        <v>8</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
-        <v>9</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="15">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
-        <v>13</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
-        <v>16</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
-        <v>17</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
-        <v>18</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="D35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
-        <v>19</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
-        <v>20</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
-        <v>21</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>2</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E7875-D850-4C93-B06C-B232169C865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44361A-B62F-4936-902D-244021B2E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Die UI ist nicht benutzerfreundlich</t>
   </si>
   <si>
-    <t>Das System schafft nicht die Darstellung der digitalen Artefakte</t>
-  </si>
-  <si>
     <t>Communityaufbau scheitert</t>
   </si>
   <si>
@@ -190,26 +187,15 @@
 vorgesehene Uploadfunktion nicht verstehen</t>
   </si>
   <si>
-    <t>Das System ermöglicht nicht, sich ein Bild einer Mittelstadt zu einer bestimmten Zeitperiode zu machen</t>
-  </si>
-  <si>
     <t>Es gelingt nicht, eine Community vom Menschen mit historischen Arefakten enstehen zu lassen.</t>
   </si>
   <si>
-    <t>Falsche Projektplanung
-Mangel an Usern
-Fehlende Beteiligung der User</t>
-  </si>
-  <si>
     <t>Es gelingt nicht, den Usercontent wissenschaftlich verifizieren zu zulassen</t>
   </si>
   <si>
     <t>zb RWE und Stadt/Dorf sehr jung</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Community soll auch für Ortsfremde und neue Bewohner findbar und zugänglich sein </t>
-  </si>
-  <si>
     <t>Die gefundene/n Zielgruppe und/oder Stakeholder sind nicht die, wie zuvor geplant und/oder agieren nicht so geplant mit dem System</t>
   </si>
   <si>
@@ -225,9 +211,6 @@
     <t>RPZ</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Die UI wurde nicht richtig im Vorfeld getestet/bewertet</t>
   </si>
   <si>
@@ -235,6 +218,27 @@
   </si>
   <si>
     <t>Es wurde nicht richtig drauf geachtet, ob der Benutzer passend für die jeweilige Fuinktion ist.</t>
+  </si>
+  <si>
+    <t>Interaktionsmöglichkeiten unter Benutzern sind bLabla</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware </t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
@@ -290,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -386,11 +390,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +487,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +825,13 @@
     <col min="11" max="11" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -815,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>4</v>
@@ -833,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -857,7 +887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -881,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -905,7 +935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -929,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -953,18 +983,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -974,14 +1001,11 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -989,7 +1013,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -1001,35 +1025,35 @@
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -1041,15 +1065,15 @@
       <c r="J11" s="8"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1058,22 +1082,18 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>48</v>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -1082,19 +1102,22 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
+      <c r="C14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1103,20 +1126,19 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1126,22 +1148,19 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
+    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -1150,7 +1169,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1161,7 +1182,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -1173,75 +1194,70 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="22">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="22">
         <v>2</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26">
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
         <v>3</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
@@ -1252,45 +1268,96 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="7">
-        <v>12</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
-        <v>10</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="8"/>
       <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="30" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44361A-B62F-4936-902D-244021B2E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75944A26-262D-47AB-BF7E-0BECAE79D9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
@@ -245,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +290,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +520,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,8 +535,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Frederik Peer Hausen (fhausen)" id="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" userId="Frederik Peer Hausen (fhausen)" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -806,15 +836,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C7" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+    <text>Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1362,5 +1400,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75944A26-262D-47AB-BF7E-0BECAE79D9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA03EA0-FC88-408D-9C40-4E8FBDC40555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,9 @@
   <commentList>
     <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</t>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -257,13 +257,22 @@
   </si>
   <si>
     <t>System</t>
+  </si>
+  <si>
+    <t>Add Philipp</t>
+  </si>
+  <si>
+    <t>Upload von allen gängien Bildformaten, verarbeiten</t>
+  </si>
+  <si>
+    <t>upload von Mobile Device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,12 +299,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -520,7 +523,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,11 +851,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1240,6 +1243,19 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">

--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA03EA0-FC88-408D-9C40-4E8FBDC40555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C8802-289E-4F59-830A-C9E32842458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Top 10 Risiken</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>upload von Mobile Device</t>
+  </si>
+  <si>
+    <t>PUB/SUB Messages</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1259,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">

--- a/Risikoanalyse .xlsx
+++ b/Risikoanalyse .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A92A12-BB2C-49F6-B527-1A21F41CD70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76FBE2-55C9-4528-B7CA-4864B7E6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <author>tc={D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</t>
       </text>
     </comment>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>Fehlendes KnowHow</t>
-  </si>
-  <si>
-    <t>Teammitglieder können nicht  qualitativ richtig  arbeiten 
-bzw. weiterarbeiten.</t>
   </si>
   <si>
     <t>Die Teammitglieder haben nicht die erforderlichen Kenntnisse über gewisse Themenfelder und Tools.</t>
@@ -509,10 +505,6 @@
     <t>Verwendung von Useraccounts im System (Rechteverwaltung)</t>
   </si>
   <si>
-    <t>Uns fehlt das notwendige Know-How um entsprechde 
-Funktionalität umzusetzen</t>
-  </si>
-  <si>
     <t>Noch nicht im Studium gelernt / Fehlende Berufserfahrung</t>
   </si>
   <si>
@@ -528,9 +520,6 @@
     <t>Interaktionselemente für die Community können nicht implementiert werden</t>
   </si>
   <si>
-    <t>Daten können nicht verschlüsselt werden</t>
-  </si>
-  <si>
     <t>zb RWE und Stadt sehr jung</t>
   </si>
   <si>
@@ -550,10 +539,20 @@
   </si>
   <si>
     <t>Uns fehlt das notwendige Know-How um entsprechende 
-Funktionalität umzusetzen</t>
-  </si>
-  <si>
-    <t>Daten können nicht gespeichert werden</t>
+Funktionalität umzusetzen und Projektzeit verlängert sich durch Aneignung</t>
+  </si>
+  <si>
+    <t>Teammitglieder können nicht  qualitativ richtig  arbeiten 
+bzw. weiterarbeiten. Projektzeit verlängert sich</t>
+  </si>
+  <si>
+    <t>Noch nicht im Studium gelernt / Fehlende Erfahrung</t>
+  </si>
+  <si>
+    <t>Daten können zunächst nicht gespeichert werden und Projektzeit verlängert sich durch aneignen von Know-How</t>
+  </si>
+  <si>
+    <t>Daten können zunächst nicht verschlüsselt werden und Projektzeit verlängert sich durch Aneignung</t>
   </si>
 </sst>
 </file>
@@ -641,36 +640,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -678,11 +671,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -695,21 +688,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,7 +718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1027,7 +1014,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C7" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+  <threadedComment ref="C4" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
     <text>Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1038,10 +1025,10 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1053,52 +1040,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1116,256 +1103,256 @@
         <f>F3*G3*H3</f>
         <v>720</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="J3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <f>F4*G4*H4</f>
-        <v>350</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>111</v>
+        <v>192</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>109</v>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
         <f>F5*G5*H5</f>
-        <v>294</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>111</v>
+        <v>192</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>122</v>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>7</v>
       </c>
       <c r="I6" s="2">
         <f>F6*G6*H6</f>
-        <v>252</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>111</v>
+        <v>175</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
         <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
       </c>
       <c r="I7" s="2">
         <f>F7*G7*H7</f>
-        <v>192</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>17</v>
+        <v>144</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
         <v>8</v>
       </c>
       <c r="I8" s="2">
         <f>F8*G8*H8</f>
-        <v>192</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
         <f>F9*G9*H9</f>
-        <v>144</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+        <v>126</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2">
         <f>F10*G10*H10</f>
-        <v>144</v>
-      </c>
-      <c r="J10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
@@ -1380,22 +1367,22 @@
         <f>F11*G11*H11</f>
         <v>96</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+    </row>
+    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1413,25 +1400,25 @@
         <f>F12*G12*H12</f>
         <v>84</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -1446,58 +1433,58 @@
         <f>F13*G13*H13</f>
         <v>72</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+    </row>
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>7</v>
       </c>
       <c r="I14" s="2">
         <f>F14*G14*H14</f>
         <v>70</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>101</v>
+      <c r="J14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
+      <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="2">
         <v>7</v>
@@ -1512,25 +1499,25 @@
         <f>F15*G15*H15</f>
         <v>70</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>111</v>
+      <c r="J15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -1545,24 +1532,24 @@
         <f>F16*G16*H16</f>
         <v>60</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+    <row r="17" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2">
@@ -1578,58 +1565,58 @@
         <f>F17*G17*H17</f>
         <v>60</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+    <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>7</v>
       </c>
       <c r="I18" s="2">
         <f>F18*G18*H18</f>
         <v>56</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="23" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
@@ -1644,25 +1631,25 @@
         <f>F19*G19*H19</f>
         <v>54</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="J19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
         <v>8</v>
@@ -1677,25 +1664,25 @@
         <f>F20*G20*H20</f>
         <v>48</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>52</v>
+      <c r="C21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
@@ -1710,22 +1697,22 @@
         <f>F21*G21*H21</f>
         <v>40</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="J21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -1743,25 +1730,25 @@
         <f>F22*G22*H22</f>
         <v>30</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1776,27 +1763,27 @@
         <f>F23*G23*H23</f>
         <v>10</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>120</v>
+      <c r="J23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J30" s="1"/>
@@ -1814,7 +1801,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1828,24 +1815,24 @@
       <c r="J33" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:K2" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
@@ -1867,189 +1854,189 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="17"/>
+    <col min="3" max="3" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>76</v>
+      <c r="D3" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="19" t="s">
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="18"/>
+      <c r="B18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>96</v>
+      <c r="B21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
